--- a/persons.xlsx
+++ b/persons.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>John Doe</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>blabla</t>
+  </si>
+  <si>
+    <t>465</t>
   </si>
 </sst>
 </file>
@@ -370,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="A1:F9"/>
@@ -482,6 +491,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>90000.0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
